--- a/в бланки заводов/Махеев/промежуточная таблица/matrix.xlsx
+++ b/в бланки заводов/Махеев/промежуточная таблица/matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Махеев\АВТОМАТИЗАЦИЯ\Махеев\промежуточная таблица\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Махеев\промежуточная таблица\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436E547-A7E3-49DF-B919-C27913B182D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EF9AD7-32A1-4FE5-B1A9-5E012215DF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$92</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>E-1KH-284-D50-X00-Y10</t>
+  </si>
+  <si>
+    <t>Кетчуп "Томатный" пакет Дой-пак с дозатором 500 г   ЭсПрод</t>
   </si>
 </sst>
 </file>
@@ -871,11 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,7 +3048,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B91">
         <v>0.5</v>
@@ -3064,11 +3067,35 @@
       </c>
       <c r="I91" t="b">
         <f>COUNTIF(C:C,C91)&gt;1</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92">
+        <v>0.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>16</v>
+      </c>
+      <c r="H92">
+        <v>144</v>
+      </c>
+      <c r="I92" t="b">
+        <f>COUNTIF(C:C,C92)&gt;1</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91" xr:uid="{D65BE010-4DC8-493F-A87A-D88D5F7DA623}"/>
+  <autoFilter ref="A1:I92" xr:uid="{D65BE010-4DC8-493F-A87A-D88D5F7DA623}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>